--- a/Figure 1a.xlsx
+++ b/Figure 1a.xlsx
@@ -360,7 +360,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -370,7 +370,7 @@
         <v>0.1</v>
       </c>
       <c r="B1">
-        <v>-9.9</v>
+        <v>-9.8782200000000007</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -378,7 +378,7 @@
         <v>0.2</v>
       </c>
       <c r="B2">
-        <v>-9.8800000000000008</v>
+        <v>-9.8804700000000008</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -386,7 +386,7 @@
         <v>0.3</v>
       </c>
       <c r="B3">
-        <v>-9.8699999999999992</v>
+        <v>-9.9316899999999997</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -394,7 +394,7 @@
         <v>0.4</v>
       </c>
       <c r="B4">
-        <v>-9.86</v>
+        <v>-9.7557399999999994</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -402,7 +402,7 @@
         <v>0.43</v>
       </c>
       <c r="B5">
-        <v>-9.85</v>
+        <v>-10.022270000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -410,7 +410,7 @@
         <v>0.5</v>
       </c>
       <c r="B6">
-        <v>-10.33</v>
+        <v>-10.30518</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -418,7 +418,7 @@
         <v>0.6</v>
       </c>
       <c r="B7">
-        <v>-10.43</v>
+        <v>-10.43038</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -426,7 +426,7 @@
         <v>0.7</v>
       </c>
       <c r="B8">
-        <v>-10.45</v>
+        <v>-10.455249999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -434,7 +434,7 @@
         <v>0.8</v>
       </c>
       <c r="B9">
-        <v>-10.52</v>
+        <v>-10.54266</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -442,7 +442,7 @@
         <v>0.9</v>
       </c>
       <c r="B10">
-        <v>-10.62</v>
+        <v>-10.64167</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>-10.6</v>
+        <v>-10.572710000000001</v>
       </c>
     </row>
   </sheetData>
